--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_06.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_06.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26004"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3236FF3A-A65F-497F-88F7-73B8A9D8C321}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25620" windowHeight="17460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25620" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphics 1 to 11" sheetId="1" r:id="rId1"/>
@@ -19,18 +25,19 @@
     <definedName name="vlookupFALSE">VLOOKUP(#REF!,#REF!,7)</definedName>
     <definedName name="vlookupTRUE">VLOOKUP(#REF!,#REF!,6)</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -138,9 +145,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -267,7 +274,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -318,17 +325,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Comma 2" xfId="7"/>
+    <cellStyle name="Comma 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="6"/>
-    <cellStyle name="Normal 2 3" xfId="8"/>
-    <cellStyle name="Normal 29" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
-    <cellStyle name="Normal 3 2" xfId="4"/>
-    <cellStyle name="Percent 2" xfId="5"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 2 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 29" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Percent 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -344,7 +351,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Start"/>
@@ -718,37 +725,37 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:O17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="2.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" customWidth="1"/>
-    <col min="4" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="3.5" customWidth="1"/>
-    <col min="7" max="7" width="9.5" customWidth="1"/>
-    <col min="8" max="8" width="3.6640625" customWidth="1"/>
-    <col min="9" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="11" width="3.5" customWidth="1"/>
-    <col min="12" max="12" width="1.5" hidden="1" customWidth="1"/>
-    <col min="13" max="15" width="9.5" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" customWidth="1"/>
+    <col min="9" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="3.42578125" customWidth="1"/>
+    <col min="12" max="12" width="1.42578125" hidden="1" customWidth="1"/>
+    <col min="13" max="15" width="9.42578125" customWidth="1"/>
     <col min="16" max="16" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" ht="15" thickBot="1">
+    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
       <c r="D3" s="16" t="s">
         <v>12</v>
@@ -777,7 +784,7 @@
       </c>
       <c r="O3" s="16"/>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
@@ -806,7 +813,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="D5" s="11" t="s">
         <v>0</v>
@@ -841,7 +848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="10">
         <v>1</v>
       </c>
@@ -865,7 +872,7 @@
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="10">
         <v>2</v>
       </c>
@@ -889,7 +896,7 @@
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
         <v>3</v>
       </c>
@@ -913,7 +920,7 @@
       </c>
       <c r="O8" s="9"/>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
         <v>4</v>
       </c>
@@ -937,7 +944,7 @@
         <v>-800</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="10">
         <v>5</v>
       </c>
@@ -961,7 +968,7 @@
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="10">
         <v>6</v>
       </c>
@@ -985,7 +992,7 @@
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="10">
         <v>7</v>
       </c>
@@ -1009,7 +1016,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="10">
         <v>8</v>
       </c>
@@ -1033,7 +1040,7 @@
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
         <v>9</v>
       </c>
@@ -1057,7 +1064,7 @@
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="10">
         <v>10</v>
       </c>
@@ -1081,7 +1088,7 @@
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="10">
         <v>11</v>
       </c>
@@ -1107,7 +1114,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="17" spans="3:15">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_06.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_06.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3236FF3A-A65F-497F-88F7-73B8A9D8C321}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26004"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25620" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25620" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Graphics 1 to 11" sheetId="1" r:id="rId1"/>
@@ -25,8 +19,11 @@
     <definedName name="vlookupFALSE">VLOOKUP(#REF!,#REF!,7)</definedName>
     <definedName name="vlookupTRUE">VLOOKUP(#REF!,#REF!,6)</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -36,52 +33,16 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Cash</t>
   </si>
   <si>
-    <t>Accounts</t>
-  </si>
-  <si>
-    <t>Receivable</t>
-  </si>
-  <si>
-    <t>Payable</t>
-  </si>
-  <si>
-    <t>Common</t>
-  </si>
-  <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>Retained</t>
-  </si>
-  <si>
-    <t>Earnings</t>
-  </si>
-  <si>
-    <t>Fees</t>
-  </si>
-  <si>
-    <t>Earned</t>
-  </si>
-  <si>
-    <t>Rent</t>
-  </si>
-  <si>
-    <t>Expense</t>
-  </si>
-  <si>
     <t>Assets</t>
   </si>
   <si>
@@ -103,9 +64,6 @@
     <t>=</t>
   </si>
   <si>
-    <t>Supplies</t>
-  </si>
-  <si>
     <t>Closed revenue account</t>
   </si>
   <si>
@@ -115,9 +73,6 @@
     <t>Ending balances</t>
   </si>
   <si>
-    <t>Issued stock for cash, $4,000</t>
-  </si>
-  <si>
     <t>Paid cash for rent, $2,800</t>
   </si>
   <si>
@@ -130,9 +85,6 @@
     <t>Sold to customers on account, $1,600</t>
   </si>
   <si>
-    <t>Purchased supplies on account, $400</t>
-  </si>
-  <si>
     <t>Purchased supplies on account, $800</t>
   </si>
   <si>
@@ -140,18 +92,54 @@
   </si>
   <si>
     <t>Received cash on account, $1,600</t>
+  </si>
+  <si>
+    <t>Retained Earnings</t>
+  </si>
+  <si>
+    <t>Accounts Receivable</t>
+  </si>
+  <si>
+    <t>Accounts Payable</t>
+  </si>
+  <si>
+    <t>Common 
+Stock</t>
+  </si>
+  <si>
+    <t>Fees Earned</t>
+  </si>
+  <si>
+    <t>Rent Expense</t>
+  </si>
+  <si>
+    <t>Supplies Expense</t>
+  </si>
+  <si>
+    <t>Issue stock for cash, $4000</t>
+  </si>
+  <si>
+    <t>Puchased supplies on account, $400</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0;\ \(#,##0\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -165,13 +153,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -204,6 +185,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -213,7 +214,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -222,28 +223,142 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1" tint="0.499984740745262"/>
       </left>
       <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1" tint="0.499984740745262"/>
       </left>
       <right/>
       <top/>
@@ -252,90 +367,189 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
-    <cellStyle name="Comma 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+  <cellStyles count="23">
+    <cellStyle name="Comma 2" xfId="7"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 2 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 29" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Percent 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="6"/>
+    <cellStyle name="Normal 2 3" xfId="8"/>
+    <cellStyle name="Normal 29" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 3 2" xfId="4"/>
+    <cellStyle name="Percent 2" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -351,7 +565,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Start"/>
@@ -725,444 +939,418 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:O17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" customWidth="1"/>
-    <col min="4" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" customWidth="1"/>
-    <col min="9" max="10" width="9.42578125" customWidth="1"/>
-    <col min="11" max="11" width="3.42578125" customWidth="1"/>
-    <col min="12" max="12" width="1.42578125" hidden="1" customWidth="1"/>
-    <col min="13" max="15" width="9.42578125" customWidth="1"/>
-    <col min="16" max="16" width="7" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="3.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="3.6640625" customWidth="1"/>
+    <col min="9" max="10" width="9.5" customWidth="1"/>
+    <col min="11" max="11" width="3.5" customWidth="1"/>
+    <col min="12" max="14" width="9.5" customWidth="1"/>
+    <col min="15" max="15" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="1"/>
-      <c r="D3" s="16" t="s">
+    <row r="2" spans="2:14" ht="15">
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="17"/>
+      <c r="N2" s="18"/>
+    </row>
+    <row r="3" spans="2:14" ht="16" thickBot="1">
+      <c r="C3" s="19"/>
+      <c r="D3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="23"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="23"/>
+    </row>
+    <row r="4" spans="2:14" ht="45">
+      <c r="C4" s="25"/>
+      <c r="D4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="15"/>
+      <c r="L4" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="33" customHeight="1">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="2:14" ht="33" customHeight="1">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="13" t="s">
+      <c r="D6" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="2:14" ht="33" customHeight="1">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="2:14" ht="33" customHeight="1">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3">
+        <v>800</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="33" customHeight="1">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="2:14" ht="33" customHeight="1">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="D10" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="2:14" ht="33" customHeight="1">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3">
+        <v>400</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="33" customHeight="1">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="2:14" ht="33" customHeight="1">
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="16"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="3" t="s">
+      <c r="D13" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E13" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="2:14" ht="33" customHeight="1">
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3">
+        <f>-L14</f>
+        <v>7300</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="3">
+        <f>-SUM(L5:L13)</f>
+        <v>-7300</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="2:14" ht="33" customHeight="1" thickBot="1">
+      <c r="B15" s="1">
+        <v>11</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7">
+        <f>-SUM(M15:N15)</f>
+        <v>-4000</v>
+      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7">
+        <f>-SUM(M5:M14)</f>
+        <v>2800</v>
+      </c>
+      <c r="N15" s="7">
+        <f>-SUM(N5:N14)</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="33" customHeight="1">
+      <c r="C16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="1"/>
-      <c r="D5" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="10">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="D16" s="10">
+        <f>SUM(D5:D15)</f>
+        <v>5700</v>
+      </c>
+      <c r="E16" s="10">
+        <f>SUM(E5:E15)</f>
+        <v>2100</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="10">
+        <f>SUM(G5:G15)</f>
+        <v>500</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="10">
+        <f>SUM(I5:I15)</f>
         <v>4000</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9">
-        <v>4000</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="10">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="9">
-        <v>3600</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9">
-        <v>3600</v>
-      </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="10">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="9">
-        <v>-2800</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9">
-        <v>-2800</v>
-      </c>
-      <c r="O8" s="9"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="10">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9">
-        <v>800</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9">
-        <v>-800</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="10">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9">
-        <v>1600</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9">
-        <v>1600</v>
-      </c>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="10">
-        <v>6</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="9">
-        <v>-700</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9">
-        <v>-700</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="10">
-        <v>7</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9">
-        <v>400</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9">
-        <v>-400</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="10">
-        <v>8</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9">
-        <v>2100</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9">
-        <v>2100</v>
-      </c>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="10">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="9">
-        <v>1600</v>
-      </c>
-      <c r="E14" s="9">
-        <v>-1600</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="10">
-        <v>10</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="9">
-        <v>7300</v>
-      </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="9">
-        <v>-7300</v>
-      </c>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="10">
-        <v>11</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9">
-        <v>-4000</v>
-      </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9">
-        <v>2800</v>
-      </c>
-      <c r="O16" s="9">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="14">
-        <f>SUM(D6:D16)</f>
-        <v>5700</v>
-      </c>
-      <c r="E17" s="14">
-        <f>SUM(E6:E16)</f>
-        <v>2100</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="14">
-        <f>SUM(G6:G16)</f>
-        <v>500</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="14">
-        <f>SUM(I6:I16)</f>
-        <v>4000</v>
-      </c>
-      <c r="J17" s="14">
-        <f>SUM(J6:J16)</f>
+      <c r="J16" s="10">
+        <f>SUM(J5:J15)</f>
         <v>3300</v>
       </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="14">
-        <f>SUM(M6:M16)</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="14">
-        <f>SUM(N6:N16)</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="14">
-        <f>SUM(O6:O16)</f>
-        <v>0</v>
-      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="L2:N2"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup scale="59" orientation="portrait"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="16" max="1048575" man="1"/>
+  </colBreaks>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
